--- a/Code/Results/Cases/Case_1_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.27609722767147</v>
+        <v>13.2188964569129</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.779244233317262</v>
+        <v>5.015407118611042</v>
       </c>
       <c r="E2">
-        <v>9.892045776084601</v>
+        <v>15.73769832470673</v>
       </c>
       <c r="F2">
-        <v>18.51944450247954</v>
+        <v>24.62405010847608</v>
       </c>
       <c r="G2">
-        <v>2.084385089336808</v>
+        <v>3.63384671211641</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.37799602755013</v>
+        <v>26.04689624712438</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.62604086365205</v>
+        <v>10.06641956127041</v>
       </c>
       <c r="L2">
-        <v>7.067877097193493</v>
+        <v>8.93886298257522</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.83495094644845</v>
+        <v>22.05706760004436</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.58230091161988</v>
+        <v>13.06304640938694</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.634179916614767</v>
+        <v>4.96388766446606</v>
       </c>
       <c r="E3">
-        <v>10.02536937802391</v>
+        <v>15.79668642953868</v>
       </c>
       <c r="F3">
-        <v>18.14432977546655</v>
+        <v>24.6481426277848</v>
       </c>
       <c r="G3">
-        <v>2.089267494936763</v>
+        <v>3.635699780579466</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.70357861383952</v>
+        <v>26.17763357169516</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.88578096458218</v>
+        <v>9.705362498731322</v>
       </c>
       <c r="L3">
-        <v>6.756945197440086</v>
+        <v>8.892993726301984</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.77613505336855</v>
+        <v>22.12565081014536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.13810816376178</v>
+        <v>12.96856150794201</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.542348411091983</v>
+        <v>4.931554511267962</v>
       </c>
       <c r="E4">
-        <v>10.11144475574112</v>
+        <v>15.83508814700937</v>
       </c>
       <c r="F4">
-        <v>17.92892666065488</v>
+        <v>24.67002506591991</v>
       </c>
       <c r="G4">
-        <v>2.092360118607356</v>
+        <v>3.636898409538476</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.91346358132726</v>
+        <v>26.26262771819591</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.41011696074099</v>
+        <v>9.474879663967492</v>
       </c>
       <c r="L4">
-        <v>6.561698153290926</v>
+        <v>8.866270394642449</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.75437702982871</v>
+        <v>22.17302059992018</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.95267751650478</v>
+        <v>12.93040303106728</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.504264311626552</v>
+        <v>4.918208764351297</v>
       </c>
       <c r="E5">
-        <v>10.14757333924908</v>
+        <v>15.85128713316782</v>
       </c>
       <c r="F5">
-        <v>17.84492637044631</v>
+        <v>24.6807219118791</v>
       </c>
       <c r="G5">
-        <v>2.093644753159517</v>
+        <v>3.637402206188348</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.0014474419723</v>
+        <v>26.29845187796449</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.21107683727151</v>
+        <v>9.378833264946856</v>
       </c>
       <c r="L5">
-        <v>6.481154990505917</v>
+        <v>8.855751175386551</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.74899493569738</v>
+        <v>22.19364323933021</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.92162533552782</v>
+        <v>12.92408886911441</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.497901499559604</v>
+        <v>4.915982648273244</v>
       </c>
       <c r="E6">
-        <v>10.15363580914299</v>
+        <v>15.85401021196162</v>
       </c>
       <c r="F6">
-        <v>17.83120687100496</v>
+        <v>24.68260548565806</v>
       </c>
       <c r="G6">
-        <v>2.093859552307067</v>
+        <v>3.637486789474979</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.01620385021294</v>
+        <v>26.30447226356279</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.17771591556525</v>
+        <v>9.362759401268454</v>
       </c>
       <c r="L6">
-        <v>6.467725310925523</v>
+        <v>8.854027098772109</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.74830793475028</v>
+        <v>22.19714717657296</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.13562503740766</v>
+        <v>12.96804543889242</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.541837431011625</v>
+        <v>4.931375204682648</v>
       </c>
       <c r="E7">
-        <v>10.11192774748723</v>
+        <v>15.83530438390315</v>
       </c>
       <c r="F7">
-        <v>17.92777848095918</v>
+        <v>24.67016212680118</v>
       </c>
       <c r="G7">
-        <v>2.092377344304076</v>
+        <v>3.636905141719527</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.91464029306835</v>
+        <v>26.2631060420606</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.407453535868</v>
+        <v>9.473592819672747</v>
       </c>
       <c r="L7">
-        <v>6.560615723543804</v>
+        <v>8.866127016720259</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.75429050578938</v>
+        <v>22.17329338792223</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.04073771704829</v>
+        <v>13.16493358065271</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.729817628579221</v>
+        <v>4.997792236410533</v>
       </c>
       <c r="E8">
-        <v>9.937136309611994</v>
+        <v>15.75758504658113</v>
       </c>
       <c r="F8">
-        <v>18.3870288925306</v>
+        <v>24.63088417689929</v>
       </c>
       <c r="G8">
-        <v>2.086049189244292</v>
+        <v>3.634473051982713</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.4881514006125</v>
+        <v>26.09099540043034</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.37524740462533</v>
+        <v>9.943801671320449</v>
       </c>
       <c r="L8">
-        <v>6.961629416199054</v>
+        <v>8.922753522388325</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.81161817619815</v>
+        <v>22.07962147177644</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.66595139919976</v>
+        <v>13.55878443625989</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.075276507456091</v>
+        <v>5.122212369834995</v>
       </c>
       <c r="E9">
-        <v>9.628192587004127</v>
+        <v>15.62244725683787</v>
       </c>
       <c r="F9">
-        <v>19.40419798656656</v>
+        <v>24.61021041783568</v>
       </c>
       <c r="G9">
-        <v>2.074366915063714</v>
+        <v>3.630184278959718</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.7338068054412</v>
+        <v>25.79088809081255</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.10156951954711</v>
+        <v>10.79274914496407</v>
       </c>
       <c r="L9">
-        <v>7.810578374963911</v>
+        <v>9.044832958264751</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.04323000642616</v>
+        <v>21.93780992520941</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.76352126286323</v>
+        <v>13.85041873830274</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.313497486216736</v>
+        <v>5.209724270509019</v>
       </c>
       <c r="E10">
-        <v>9.422442679770219</v>
+        <v>15.53362013391976</v>
       </c>
       <c r="F10">
-        <v>20.21958212685767</v>
+        <v>24.62944444661906</v>
       </c>
       <c r="G10">
-        <v>2.066190421459913</v>
+        <v>3.627323233819872</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.23421306675097</v>
+        <v>25.59311990932721</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.26172217441384</v>
+        <v>11.36802716303395</v>
       </c>
       <c r="L10">
-        <v>8.472795214093372</v>
+        <v>9.140693897241219</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.29279803768711</v>
+        <v>21.85934260727261</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.24122941088918</v>
+        <v>13.98306777537621</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.418236202644609</v>
+        <v>5.248617787201152</v>
       </c>
       <c r="E11">
-        <v>9.333615082254772</v>
+        <v>15.49546677039608</v>
       </c>
       <c r="F11">
-        <v>20.60456241172943</v>
+        <v>24.64566161926043</v>
       </c>
       <c r="G11">
-        <v>2.062550331322071</v>
+        <v>3.626083976857783</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.0200554061111</v>
+        <v>25.50806752761157</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.76559355284069</v>
+        <v>11.61856637665561</v>
       </c>
       <c r="L11">
-        <v>8.75948691951141</v>
+        <v>9.185516287736236</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.42486421974398</v>
+        <v>21.82926762818672</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.41898894964913</v>
+        <v>14.03325369623563</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.457358913152112</v>
+        <v>5.263208209515216</v>
       </c>
       <c r="E12">
-        <v>9.300680477942024</v>
+        <v>15.48134220877749</v>
       </c>
       <c r="F12">
-        <v>20.75230238151255</v>
+        <v>24.65287388075508</v>
       </c>
       <c r="G12">
-        <v>2.061182590335861</v>
+        <v>3.625623604606476</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.94097108864544</v>
+        <v>25.47656593949564</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.95294324884885</v>
+        <v>11.71178974779542</v>
       </c>
       <c r="L12">
-        <v>8.865977600416853</v>
+        <v>9.202652856602199</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.47763454237275</v>
+        <v>21.81868981877902</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.38084522498357</v>
+        <v>14.02244795304758</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.448957389085892</v>
+        <v>5.260072118815247</v>
       </c>
       <c r="E13">
-        <v>9.307742002657013</v>
+        <v>15.4843698218211</v>
       </c>
       <c r="F13">
-        <v>20.72039792653749</v>
+        <v>24.65127300516686</v>
       </c>
       <c r="G13">
-        <v>2.061476695047409</v>
+        <v>3.625722358535927</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.95791157615011</v>
+        <v>25.48331898430067</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.91274802385825</v>
+        <v>11.69178649238175</v>
       </c>
       <c r="L13">
-        <v>8.843134789772233</v>
+        <v>9.198955110867802</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.4661453475794</v>
+        <v>21.82093183174741</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.25591683680699</v>
+        <v>13.98719775374355</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.421465757464589</v>
+        <v>5.249820943481227</v>
       </c>
       <c r="E14">
-        <v>9.330891350594325</v>
+        <v>15.49429826017877</v>
       </c>
       <c r="F14">
-        <v>20.6166782212942</v>
+        <v>24.64623352781501</v>
       </c>
       <c r="G14">
-        <v>2.062437596775706</v>
+        <v>3.626045923484698</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.01350796181684</v>
+        <v>25.50546172904746</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.78107625319723</v>
+        <v>11.62626923629116</v>
       </c>
       <c r="L14">
-        <v>8.768289399480496</v>
+        <v>9.186922916838755</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.42914984343182</v>
+        <v>21.82838111828709</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.17898512428237</v>
+        <v>13.96559881839263</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.404555590815669</v>
+        <v>5.243523694678175</v>
       </c>
       <c r="E15">
-        <v>9.34516300985424</v>
+        <v>15.50042179036019</v>
       </c>
       <c r="F15">
-        <v>20.55339979955398</v>
+        <v>24.64328610193595</v>
       </c>
       <c r="G15">
-        <v>2.063027545161133</v>
+        <v>3.626245275086851</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.04782854076316</v>
+        <v>25.5191167112853</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.69997308256891</v>
+        <v>11.58592184128415</v>
       </c>
       <c r="L15">
-        <v>8.722175074162534</v>
+        <v>9.179573775221876</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.40685109699077</v>
+        <v>21.83304970608122</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.7318643271155</v>
+        <v>13.84174577894785</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.306577963719403</v>
+        <v>5.207163538684599</v>
       </c>
       <c r="E16">
-        <v>9.428345117247265</v>
+        <v>15.53615883484211</v>
       </c>
       <c r="F16">
-        <v>20.1946999936313</v>
+        <v>24.62853468179456</v>
       </c>
       <c r="G16">
-        <v>2.066429846136279</v>
+        <v>3.627405471010644</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.24848305131606</v>
+        <v>25.59877709636329</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.22831029380828</v>
+        <v>11.35142524125453</v>
       </c>
       <c r="L16">
-        <v>8.453767976462121</v>
+        <v>9.137788126128923</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.28454842523528</v>
+        <v>21.86142141198656</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.45201313939133</v>
+        <v>13.76573078155406</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.245528912886118</v>
+        <v>5.184618819302631</v>
       </c>
       <c r="E17">
-        <v>9.48060734178428</v>
+        <v>15.55865914287821</v>
       </c>
       <c r="F17">
-        <v>19.9782025595918</v>
+        <v>24.62139625683766</v>
       </c>
       <c r="G17">
-        <v>2.068536880997788</v>
+        <v>3.628133125433548</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.37502082187204</v>
+        <v>25.64890412162858</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.93282385178415</v>
+        <v>11.20467666986714</v>
       </c>
       <c r="L17">
-        <v>8.285394217272934</v>
+        <v>9.112457104458807</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.21433672115546</v>
+        <v>21.88026804324987</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.28901981102701</v>
+        <v>13.72200989780533</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.210074402088984</v>
+        <v>5.171565812819711</v>
       </c>
       <c r="E18">
-        <v>9.511114957689438</v>
+        <v>15.57181298647947</v>
       </c>
       <c r="F18">
-        <v>19.85500598862999</v>
+        <v>24.61799353369686</v>
       </c>
       <c r="G18">
-        <v>2.06975631584016</v>
+        <v>3.628557514558311</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.44902731532857</v>
+        <v>25.67819836290645</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.76061983527531</v>
+        <v>11.11922287254973</v>
       </c>
       <c r="L18">
-        <v>8.187178804797703</v>
+        <v>9.098002409968824</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.17569239403334</v>
+        <v>21.89163697775717</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.23348565937533</v>
+        <v>13.70720824162562</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.198012178530563</v>
+        <v>5.16713172419196</v>
       </c>
       <c r="E19">
-        <v>9.521520741853823</v>
+        <v>15.5763031360336</v>
       </c>
       <c r="F19">
-        <v>19.81352370081297</v>
+        <v>24.61696225168072</v>
       </c>
       <c r="G19">
-        <v>2.070170509615212</v>
+        <v>3.628702213482746</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.47429150574624</v>
+        <v>25.68819634513356</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.70192923027346</v>
+        <v>11.09011121355243</v>
       </c>
       <c r="L19">
-        <v>8.153688689422307</v>
+        <v>9.093128399218052</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.16290387206753</v>
+        <v>21.89557704614088</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.48201420472714</v>
+        <v>13.7738229254282</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.252063087355505</v>
+        <v>5.187027675309499</v>
       </c>
       <c r="E20">
-        <v>9.474997482380902</v>
+        <v>15.55624198506066</v>
       </c>
       <c r="F20">
-        <v>20.00111222186317</v>
+        <v>24.62208340059485</v>
       </c>
       <c r="G20">
-        <v>2.068311810039885</v>
+        <v>3.62805505904661</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.36142298041519</v>
+        <v>25.64352015173869</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.96451173580018</v>
+        <v>11.22040711274119</v>
       </c>
       <c r="L20">
-        <v>8.303459681458975</v>
+        <v>9.115141810433034</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.22163013018714</v>
+        <v>21.87820703232873</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.29269670759584</v>
+        <v>13.99755316139604</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.429555487956145</v>
+        <v>5.252835746244991</v>
       </c>
       <c r="E21">
-        <v>9.324072617248873</v>
+        <v>15.49137327037619</v>
       </c>
       <c r="F21">
-        <v>20.64709062105318</v>
+        <v>24.64768470009643</v>
       </c>
       <c r="G21">
-        <v>2.062155072877336</v>
+        <v>3.62595064321565</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.99712222874846</v>
+        <v>25.4989387148873</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.81984532915037</v>
+        <v>11.64555836822946</v>
       </c>
       <c r="L21">
-        <v>8.790329400473164</v>
+        <v>9.190452723870028</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.43994070726254</v>
+        <v>21.8261710531104</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.8042265072156</v>
+        <v>14.14349000522525</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.542405608496302</v>
+        <v>5.295039815315941</v>
       </c>
       <c r="E22">
-        <v>9.229538393561722</v>
+        <v>15.45086177984782</v>
       </c>
       <c r="F22">
-        <v>21.0806506660471</v>
+        <v>24.67065817915391</v>
       </c>
       <c r="G22">
-        <v>2.058193174096751</v>
+        <v>3.624627185384321</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.77083409811619</v>
+        <v>25.40856068210889</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.3587126916667</v>
+        <v>11.91378259779231</v>
       </c>
       <c r="L22">
-        <v>9.096453696886746</v>
+        <v>9.240619161809052</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.59874370762694</v>
+        <v>21.79689036060818</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.53289556677927</v>
+        <v>14.06564067549667</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.482468912509261</v>
+        <v>5.272590321423468</v>
       </c>
       <c r="E23">
-        <v>9.279611499576827</v>
+        <v>15.47231143892061</v>
       </c>
       <c r="F23">
-        <v>20.8482310575635</v>
+        <v>24.65782687442873</v>
       </c>
       <c r="G23">
-        <v>2.060302309017942</v>
+        <v>3.625328805219361</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.89048129327891</v>
+        <v>25.45642087337366</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.07295588008772</v>
+        <v>11.7715215956371</v>
       </c>
       <c r="L23">
-        <v>8.934166823787795</v>
+        <v>9.213761617087558</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.51248292141106</v>
+        <v>21.81208457794248</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.46845727115305</v>
+        <v>13.77016452260965</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.249110096430647</v>
+        <v>5.185938916821542</v>
       </c>
       <c r="E24">
-        <v>9.477532263998382</v>
+        <v>15.55733410264095</v>
       </c>
       <c r="F24">
-        <v>19.99075080062256</v>
+        <v>24.62177055835434</v>
       </c>
       <c r="G24">
-        <v>2.068413539420856</v>
+        <v>3.628090334008712</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.36756665478264</v>
+        <v>25.64595276316543</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.95019288338139</v>
+        <v>11.21329875893529</v>
       </c>
       <c r="L24">
-        <v>8.295296694255629</v>
+        <v>9.113927716201941</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.21832742566773</v>
+        <v>21.87913715294741</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.2429437784448</v>
+        <v>13.45166128002592</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.984463844811125</v>
+        <v>5.089213489086176</v>
       </c>
       <c r="E25">
-        <v>9.70809132758237</v>
+        <v>15.65716400986894</v>
       </c>
       <c r="F25">
-        <v>19.11682809381874</v>
+        <v>24.60975895486705</v>
       </c>
       <c r="G25">
-        <v>2.077453110096338</v>
+        <v>3.631293375162708</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.92866337819622</v>
+        <v>25.86807951736849</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.65335739299097</v>
+        <v>10.57134738271456</v>
       </c>
       <c r="L25">
-        <v>7.553693526322681</v>
+        <v>9.010681860186091</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.96708908063192</v>
+        <v>21.97166970345615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.2188964569129</v>
+        <v>12.27609722767149</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.015407118611042</v>
+        <v>4.779244233317375</v>
       </c>
       <c r="E2">
-        <v>15.73769832470673</v>
+        <v>9.892045776084673</v>
       </c>
       <c r="F2">
-        <v>24.62405010847608</v>
+        <v>18.51944450247942</v>
       </c>
       <c r="G2">
-        <v>3.63384671211641</v>
+        <v>2.08438508933654</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.04689624712438</v>
+        <v>16.3779960275501</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.06641956127041</v>
+        <v>14.62604086365211</v>
       </c>
       <c r="L2">
-        <v>8.93886298257522</v>
+        <v>7.067877097193481</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.05706760004436</v>
+        <v>14.83495094644835</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.06304640938694</v>
+        <v>11.58230091161986</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.96388766446606</v>
+        <v>4.634179916614867</v>
       </c>
       <c r="E3">
-        <v>15.79668642953868</v>
+        <v>10.02536937802398</v>
       </c>
       <c r="F3">
-        <v>24.6481426277848</v>
+        <v>18.1443297754665</v>
       </c>
       <c r="G3">
-        <v>3.635699780579466</v>
+        <v>2.089267494936763</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.17763357169516</v>
+        <v>16.70357861383961</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.705362498731322</v>
+        <v>13.88578096458223</v>
       </c>
       <c r="L3">
-        <v>8.892993726301984</v>
+        <v>6.756945197440063</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.12565081014536</v>
+        <v>14.77613505336853</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.96856150794201</v>
+        <v>11.13810816376182</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.931554511267962</v>
+        <v>4.542348411092203</v>
       </c>
       <c r="E4">
-        <v>15.83508814700937</v>
+        <v>10.11144475574113</v>
       </c>
       <c r="F4">
-        <v>24.67002506591991</v>
+        <v>17.92892666065481</v>
       </c>
       <c r="G4">
-        <v>3.636898409538476</v>
+        <v>2.092360118607222</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.26262771819591</v>
+        <v>16.91346358132734</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.474879663967492</v>
+        <v>13.41011696074101</v>
       </c>
       <c r="L4">
-        <v>8.866270394642449</v>
+        <v>6.561698153290909</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.17302059992018</v>
+        <v>14.75437702982872</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.93040303106728</v>
+        <v>10.95267751650475</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.918208764351297</v>
+        <v>4.504264311626585</v>
       </c>
       <c r="E5">
-        <v>15.85128713316782</v>
+        <v>10.14757333924902</v>
       </c>
       <c r="F5">
-        <v>24.6807219118791</v>
+        <v>17.84492637044624</v>
       </c>
       <c r="G5">
-        <v>3.637402206188348</v>
+        <v>2.093644753159517</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.29845187796449</v>
+        <v>17.0014474419722</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.378833264946856</v>
+        <v>13.21107683727152</v>
       </c>
       <c r="L5">
-        <v>8.855751175386551</v>
+        <v>6.481154990505897</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.19364323933021</v>
+        <v>14.74899493569731</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.92408886911441</v>
+        <v>10.92162533552782</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.915982648273244</v>
+        <v>4.497901499559719</v>
       </c>
       <c r="E6">
-        <v>15.85401021196162</v>
+        <v>10.15363580914286</v>
       </c>
       <c r="F6">
-        <v>24.68260548565806</v>
+        <v>17.83120687100476</v>
       </c>
       <c r="G6">
-        <v>3.637486789474979</v>
+        <v>2.093859552307201</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.30447226356279</v>
+        <v>17.01620385021279</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.362759401268454</v>
+        <v>13.17771591556528</v>
       </c>
       <c r="L6">
-        <v>8.854027098772109</v>
+        <v>6.467725310925476</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.19714717657296</v>
+        <v>14.74830793475012</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.96804543889242</v>
+        <v>11.13562503740771</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.931375204682648</v>
+        <v>4.541837431011757</v>
       </c>
       <c r="E7">
-        <v>15.83530438390315</v>
+        <v>10.11192774748737</v>
       </c>
       <c r="F7">
-        <v>24.67016212680118</v>
+        <v>17.92777848095895</v>
       </c>
       <c r="G7">
-        <v>3.636905141719527</v>
+        <v>2.092377344303808</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.2631060420606</v>
+        <v>16.91464029306832</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.473592819672747</v>
+        <v>13.40745353586809</v>
       </c>
       <c r="L7">
-        <v>8.866127016720259</v>
+        <v>6.560615723543778</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.17329338792223</v>
+        <v>14.75429050578922</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.16493358065271</v>
+        <v>12.04073771704826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.997792236410533</v>
+        <v>4.729817628579019</v>
       </c>
       <c r="E8">
-        <v>15.75758504658113</v>
+        <v>9.93713630961199</v>
       </c>
       <c r="F8">
-        <v>24.63088417689929</v>
+        <v>18.38702889253051</v>
       </c>
       <c r="G8">
-        <v>3.634473051982713</v>
+        <v>2.086049189244426</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.09099540043034</v>
+        <v>16.4881514006123</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.943801671320449</v>
+        <v>14.37524740462542</v>
       </c>
       <c r="L8">
-        <v>8.922753522388325</v>
+        <v>6.961629416199052</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.07962147177644</v>
+        <v>14.81161817619796</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.55878443625989</v>
+        <v>13.66595139919978</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.122212369834995</v>
+        <v>5.075276507455992</v>
       </c>
       <c r="E9">
-        <v>15.62244725683787</v>
+        <v>9.628192587004147</v>
       </c>
       <c r="F9">
-        <v>24.61021041783568</v>
+        <v>19.40419798656648</v>
       </c>
       <c r="G9">
-        <v>3.630184278959718</v>
+        <v>2.07436691506358</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.79088809081255</v>
+        <v>15.73380680544113</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.79274914496407</v>
+        <v>16.10156951954716</v>
       </c>
       <c r="L9">
-        <v>9.044832958264751</v>
+        <v>7.810578374963996</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.93780992520941</v>
+        <v>15.04323000642604</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.85041873830274</v>
+        <v>14.76352126286324</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.209724270509019</v>
+        <v>5.313497486216887</v>
       </c>
       <c r="E10">
-        <v>15.53362013391976</v>
+        <v>9.422442679770239</v>
       </c>
       <c r="F10">
-        <v>24.62944444661906</v>
+        <v>20.2195821268576</v>
       </c>
       <c r="G10">
-        <v>3.627323233819872</v>
+        <v>2.066190421460049</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.59311990932721</v>
+        <v>15.23421306675095</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.36802716303395</v>
+        <v>17.26172217441378</v>
       </c>
       <c r="L10">
-        <v>9.140693897241219</v>
+        <v>8.472795214093374</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.85934260727261</v>
+        <v>15.2927980376871</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.98306777537621</v>
+        <v>15.24122941088915</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.248617787201152</v>
+        <v>5.418236202644679</v>
       </c>
       <c r="E11">
-        <v>15.49546677039608</v>
+        <v>9.333615082254644</v>
       </c>
       <c r="F11">
-        <v>24.64566161926043</v>
+        <v>20.60456241172943</v>
       </c>
       <c r="G11">
-        <v>3.626083976857783</v>
+        <v>2.062550331322071</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.50806752761157</v>
+        <v>15.02005540611096</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.61856637665561</v>
+        <v>17.76559355284066</v>
       </c>
       <c r="L11">
-        <v>9.185516287736236</v>
+        <v>8.759486919511399</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.82926762818672</v>
+        <v>15.42486421974397</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.03325369623563</v>
+        <v>15.41898894964914</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.263208209515216</v>
+        <v>5.457358913152165</v>
       </c>
       <c r="E12">
-        <v>15.48134220877749</v>
+        <v>9.300680477942164</v>
       </c>
       <c r="F12">
-        <v>24.65287388075508</v>
+        <v>20.75230238151242</v>
       </c>
       <c r="G12">
-        <v>3.625623604606476</v>
+        <v>2.061182590335727</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.47656593949564</v>
+        <v>14.9409710886453</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.71178974779542</v>
+        <v>17.95294324884894</v>
       </c>
       <c r="L12">
-        <v>9.202652856602199</v>
+        <v>8.865977600416864</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.81868981877902</v>
+        <v>15.4776345423726</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.02244795304758</v>
+        <v>15.3808452249836</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.260072118815247</v>
+        <v>5.448957389085887</v>
       </c>
       <c r="E13">
-        <v>15.4843698218211</v>
+        <v>9.307742002657147</v>
       </c>
       <c r="F13">
-        <v>24.65127300516686</v>
+        <v>20.72039792653745</v>
       </c>
       <c r="G13">
-        <v>3.625722358535927</v>
+        <v>2.061476695047543</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.48331898430067</v>
+        <v>14.9579115761501</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.69178649238175</v>
+        <v>17.91274802385829</v>
       </c>
       <c r="L13">
-        <v>9.198955110867802</v>
+        <v>8.843134789772195</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.82093183174741</v>
+        <v>15.46614534757933</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.98719775374355</v>
+        <v>15.25591683680703</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.249820943481227</v>
+        <v>5.421465757464738</v>
       </c>
       <c r="E14">
-        <v>15.49429826017877</v>
+        <v>9.330891350594461</v>
       </c>
       <c r="F14">
-        <v>24.64623352781501</v>
+        <v>20.61667822129405</v>
       </c>
       <c r="G14">
-        <v>3.626045923484698</v>
+        <v>2.06243759677584</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.50546172904746</v>
+        <v>15.01350796181676</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.62626923629116</v>
+        <v>17.78107625319733</v>
       </c>
       <c r="L14">
-        <v>9.186922916838755</v>
+        <v>8.768289399480542</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.82838111828709</v>
+        <v>15.42914984343166</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.96559881839263</v>
+        <v>15.17898512428238</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.243523694678175</v>
+        <v>5.404555590815558</v>
       </c>
       <c r="E15">
-        <v>15.50042179036019</v>
+        <v>9.34516300985425</v>
       </c>
       <c r="F15">
-        <v>24.64328610193595</v>
+        <v>20.55339979955401</v>
       </c>
       <c r="G15">
-        <v>3.626245275086851</v>
+        <v>2.063027545161266</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.5191167112853</v>
+        <v>15.04782854076324</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.58592184128415</v>
+        <v>17.69997308256896</v>
       </c>
       <c r="L15">
-        <v>9.179573775221876</v>
+        <v>8.722175074162589</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.83304970608122</v>
+        <v>15.40685109699076</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.84174577894785</v>
+        <v>14.73186432711552</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.207163538684599</v>
+        <v>5.306577963719402</v>
       </c>
       <c r="E16">
-        <v>15.53615883484211</v>
+        <v>9.42834511724759</v>
       </c>
       <c r="F16">
-        <v>24.62853468179456</v>
+        <v>20.19469999363124</v>
       </c>
       <c r="G16">
-        <v>3.627405471010644</v>
+        <v>2.066429846136681</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.59877709636329</v>
+        <v>15.24848305131617</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.35142524125453</v>
+        <v>17.22831029380836</v>
       </c>
       <c r="L16">
-        <v>9.137788126128923</v>
+        <v>8.453767976462123</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.86142141198656</v>
+        <v>15.28454842523519</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.76573078155406</v>
+        <v>14.45201313939136</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.184618819302631</v>
+        <v>5.245528912886043</v>
       </c>
       <c r="E17">
-        <v>15.55865914287821</v>
+        <v>9.480607341784426</v>
       </c>
       <c r="F17">
-        <v>24.62139625683766</v>
+        <v>19.97820255959171</v>
       </c>
       <c r="G17">
-        <v>3.628133125433548</v>
+        <v>2.068536880997923</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.64890412162858</v>
+        <v>15.37502082187197</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.20467666986714</v>
+        <v>16.93282385178433</v>
       </c>
       <c r="L17">
-        <v>9.112457104458807</v>
+        <v>8.285394217273016</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.88026804324987</v>
+        <v>15.2143367211553</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.72200989780533</v>
+        <v>14.289019811027</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.171565812819711</v>
+        <v>5.210074402088971</v>
       </c>
       <c r="E18">
-        <v>15.57181298647947</v>
+        <v>9.511114957689253</v>
       </c>
       <c r="F18">
-        <v>24.61799353369686</v>
+        <v>19.85500598863004</v>
       </c>
       <c r="G18">
-        <v>3.628557514558311</v>
+        <v>2.069756315840027</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.67819836290645</v>
+        <v>15.44902731532855</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.11922287254973</v>
+        <v>16.76061983527529</v>
       </c>
       <c r="L18">
-        <v>9.098002409968824</v>
+        <v>8.1871788047977</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.89163697775717</v>
+        <v>15.17569239403339</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.70720824162562</v>
+        <v>14.23348565937538</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.16713172419196</v>
+        <v>5.198012178530611</v>
       </c>
       <c r="E19">
-        <v>15.5763031360336</v>
+        <v>9.521520741853761</v>
       </c>
       <c r="F19">
-        <v>24.61696225168072</v>
+        <v>19.813523700813</v>
       </c>
       <c r="G19">
-        <v>3.628702213482746</v>
+        <v>2.070170509615079</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.68819634513356</v>
+        <v>15.4742915057463</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.09011121355243</v>
+        <v>16.70192923027339</v>
       </c>
       <c r="L19">
-        <v>9.093128399218052</v>
+        <v>8.1536886894223</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.89557704614088</v>
+        <v>15.1629038720676</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.7738229254282</v>
+        <v>14.48201420472716</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.187027675309499</v>
+        <v>5.252063087355605</v>
       </c>
       <c r="E20">
-        <v>15.55624198506066</v>
+        <v>9.474997482381104</v>
       </c>
       <c r="F20">
-        <v>24.62208340059485</v>
+        <v>20.00111222186308</v>
       </c>
       <c r="G20">
-        <v>3.62805505904661</v>
+        <v>2.068311810039885</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.64352015173869</v>
+        <v>15.3614229804152</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.22040711274119</v>
+        <v>16.96451173580022</v>
       </c>
       <c r="L20">
-        <v>9.115141810433034</v>
+        <v>8.303459681458977</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.87820703232873</v>
+        <v>15.22163013018705</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.99755316139604</v>
+        <v>15.29269670759587</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.252835746244991</v>
+        <v>5.429555487956033</v>
       </c>
       <c r="E21">
-        <v>15.49137327037619</v>
+        <v>9.324072617248829</v>
       </c>
       <c r="F21">
-        <v>24.64768470009643</v>
+        <v>20.64709062105315</v>
       </c>
       <c r="G21">
-        <v>3.62595064321565</v>
+        <v>2.062155072876937</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.4989387148873</v>
+        <v>14.99712222874831</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.64555836822946</v>
+        <v>17.81984532915038</v>
       </c>
       <c r="L21">
-        <v>9.190452723870028</v>
+        <v>8.790329400473187</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.8261710531104</v>
+        <v>15.43994070726246</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.14349000522525</v>
+        <v>15.80422650721563</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.295039815315941</v>
+        <v>5.542405608496455</v>
       </c>
       <c r="E22">
-        <v>15.45086177984782</v>
+        <v>9.229538393561734</v>
       </c>
       <c r="F22">
-        <v>24.67065817915391</v>
+        <v>21.080650666047</v>
       </c>
       <c r="G22">
-        <v>3.624627185384321</v>
+        <v>2.05819317409675</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.40856068210889</v>
+        <v>14.77083409811611</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.91378259779231</v>
+        <v>18.35871269166676</v>
       </c>
       <c r="L22">
-        <v>9.240619161809052</v>
+        <v>9.096453696886785</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.79689036060818</v>
+        <v>15.59874370762687</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.06564067549667</v>
+        <v>15.53289556677928</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.272590321423468</v>
+        <v>5.482468912509156</v>
       </c>
       <c r="E23">
-        <v>15.47231143892061</v>
+        <v>9.279611499577081</v>
       </c>
       <c r="F23">
-        <v>24.65782687442873</v>
+        <v>20.84823105756352</v>
       </c>
       <c r="G23">
-        <v>3.625328805219361</v>
+        <v>2.060302309018076</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.45642087337366</v>
+        <v>14.89048129327903</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.7715215956371</v>
+        <v>18.07295588008779</v>
       </c>
       <c r="L23">
-        <v>9.213761617087558</v>
+        <v>8.934166823787763</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.81208457794248</v>
+        <v>15.51248292141107</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.77016452260965</v>
+        <v>14.46845727115306</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.185938916821542</v>
+        <v>5.249110096430647</v>
       </c>
       <c r="E24">
-        <v>15.55733410264095</v>
+        <v>9.477532263998576</v>
       </c>
       <c r="F24">
-        <v>24.62177055835434</v>
+        <v>19.99075080062249</v>
       </c>
       <c r="G24">
-        <v>3.628090334008712</v>
+        <v>2.06841353942099</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.64595276316543</v>
+        <v>15.36756665478265</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.21329875893529</v>
+        <v>16.9501928833814</v>
       </c>
       <c r="L24">
-        <v>9.113927716201941</v>
+        <v>8.295296694255654</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.87913715294741</v>
+        <v>15.21832742566764</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.45166128002592</v>
+        <v>13.24294377844483</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.089213489086176</v>
+        <v>4.984463844811026</v>
       </c>
       <c r="E25">
-        <v>15.65716400986894</v>
+        <v>9.70809132758243</v>
       </c>
       <c r="F25">
-        <v>24.60975895486705</v>
+        <v>19.11682809381865</v>
       </c>
       <c r="G25">
-        <v>3.631293375162708</v>
+        <v>2.077453110096205</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.86807951736849</v>
+        <v>15.9286633781961</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.57134738271456</v>
+        <v>15.65335739299099</v>
       </c>
       <c r="L25">
-        <v>9.010681860186091</v>
+        <v>7.553693526322701</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.97166970345615</v>
+        <v>14.96708908063177</v>
       </c>
     </row>
   </sheetData>
